--- a/auto/devices/AFM_STM32L053xx.xlsx
+++ b/auto/devices/AFM_STM32L053xx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
   <si>
     <t>Device</t>
   </si>
@@ -20,6 +20,45 @@
     <t>STM32L053xx</t>
   </si>
   <si>
+    <t>Peripheral name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>RCC enable bit position</t>
+  </si>
+  <si>
+    <t>GPIOA</t>
+  </si>
+  <si>
+    <t>0X5000 0000</t>
+  </si>
+  <si>
+    <t>GPIOB</t>
+  </si>
+  <si>
+    <t>0X5000 0400</t>
+  </si>
+  <si>
+    <t>GPIOC</t>
+  </si>
+  <si>
+    <t>0X5000 0800</t>
+  </si>
+  <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>0X5000 0C00</t>
+  </si>
+  <si>
+    <t>GPIOE</t>
+  </si>
+  <si>
+    <t>0X5000 1000</t>
+  </si>
+  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -29,18 +68,9 @@
     <t>AF1</t>
   </si>
   <si>
-    <t>Peripheral name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>AF2</t>
   </si>
   <si>
-    <t>RCC enable bit position</t>
-  </si>
-  <si>
     <t>AF3</t>
   </si>
   <si>
@@ -53,9 +83,6 @@
     <t>AF6</t>
   </si>
   <si>
-    <t>GPIOA</t>
-  </si>
-  <si>
     <t>AF7</t>
   </si>
   <si>
@@ -65,9 +92,6 @@
     <t>AF9</t>
   </si>
   <si>
-    <t>0X5000 0000</t>
-  </si>
-  <si>
     <t>AF10</t>
   </si>
   <si>
@@ -89,25 +113,25 @@
     <t>PA0</t>
   </si>
   <si>
-    <t>GPIOB</t>
-  </si>
-  <si>
-    <t>0X5000 0400</t>
+    <t>GPIOH</t>
   </si>
   <si>
     <t>TIM2_CH1</t>
   </si>
   <si>
+    <t>0X5000 1C00</t>
+  </si>
+  <si>
     <t>PA1</t>
   </si>
   <si>
     <t>TIM2_CH2</t>
   </si>
   <si>
-    <t>GPIOC</t>
-  </si>
-  <si>
-    <t>0X5000 0800</t>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>0X4001 3800</t>
   </si>
   <si>
     <t>PA2</t>
@@ -119,46 +143,43 @@
     <t>TIM2_CH3</t>
   </si>
   <si>
-    <t>GPIOD</t>
+    <t>Timer22</t>
   </si>
   <si>
     <t>USART2_TX</t>
   </si>
   <si>
-    <t>0X5000 0C00</t>
+    <t>0X4001 1400</t>
   </si>
   <si>
     <t>PA3</t>
   </si>
   <si>
-    <t>GPIOE</t>
-  </si>
-  <si>
     <t>TIM21_CH2</t>
   </si>
   <si>
-    <t>0X5000 1000</t>
+    <t>Timer21</t>
   </si>
   <si>
     <t>TIM2_CH4</t>
   </si>
   <si>
+    <t>0X4001 0800</t>
+  </si>
+  <si>
     <t>USART2_RX</t>
   </si>
   <si>
-    <t>GPIOH</t>
-  </si>
-  <si>
-    <t>0X5000 1C00</t>
-  </si>
-  <si>
     <t>PA4</t>
   </si>
   <si>
+    <t>I2C3</t>
+  </si>
+  <si>
     <t>SPI1_NSS</t>
   </si>
   <si>
-    <t>USART1</t>
+    <t>0X4000 7800</t>
   </si>
   <si>
     <t>PA5</t>
@@ -167,118 +188,166 @@
     <t>SP1_SCK</t>
   </si>
   <si>
-    <t>0X4001 3800</t>
+    <t>I2C2</t>
+  </si>
+  <si>
+    <t>0X4000 5800</t>
   </si>
   <si>
     <t>PA6</t>
   </si>
   <si>
-    <t>Timer22</t>
-  </si>
-  <si>
     <t>SP1_MISO</t>
   </si>
   <si>
-    <t>0X4001 1400</t>
-  </si>
-  <si>
     <t>TIM22_CH1</t>
   </si>
   <si>
+    <t>I2C1</t>
+  </si>
+  <si>
     <t>PA7</t>
   </si>
   <si>
-    <t>Timer21</t>
+    <t>0X4000 5400</t>
   </si>
   <si>
     <t>SPI1_MOSI</t>
   </si>
   <si>
-    <t>0X4001 0800</t>
-  </si>
-  <si>
     <t>TIM22_CH2</t>
   </si>
   <si>
-    <t>I2C3</t>
-  </si>
-  <si>
-    <t>0X4000 7800</t>
-  </si>
-  <si>
     <t>PA8</t>
   </si>
   <si>
+    <t>USART5</t>
+  </si>
+  <si>
+    <t>0X4000 5000</t>
+  </si>
+  <si>
     <t>PA9</t>
   </si>
   <si>
-    <t>I2C2</t>
-  </si>
-  <si>
-    <t>0X4000 5800</t>
-  </si>
-  <si>
     <t>USART1_TX</t>
   </si>
   <si>
-    <t>I2C1</t>
+    <t>USART4</t>
   </si>
   <si>
     <t>PA10</t>
   </si>
   <si>
-    <t>0X4000 5400</t>
+    <t>0X4000 4C00</t>
   </si>
   <si>
     <t>USART1_RX</t>
   </si>
   <si>
-    <t>USART5</t>
-  </si>
-  <si>
-    <t>0X4000 5000</t>
+    <t>LPUART1</t>
   </si>
   <si>
     <t>PA11</t>
   </si>
   <si>
-    <t>USART4</t>
-  </si>
-  <si>
-    <t>0X4000 4C00</t>
+    <t>0X4000 4800</t>
   </si>
   <si>
     <t>PA12</t>
   </si>
   <si>
-    <t>LPUART1</t>
-  </si>
-  <si>
-    <t>0X4000 4800</t>
-  </si>
-  <si>
     <t>PA13</t>
   </si>
   <si>
     <t>PA14</t>
   </si>
   <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>SP1_NSS</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>SPI2_NSS</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>LPUART1_TX</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>I2C2_SCL</t>
+  </si>
+  <si>
     <t>USART2</t>
   </si>
   <si>
+    <t>PB11</t>
+  </si>
+  <si>
     <t>0X4000 4400</t>
   </si>
   <si>
+    <t>LPUART1_RX</t>
+  </si>
+  <si>
+    <t>I2C2_SDA</t>
+  </si>
+  <si>
     <t>SPI1</t>
   </si>
   <si>
-    <t>PA15</t>
-  </si>
-  <si>
     <t>0X4001 3000</t>
   </si>
   <si>
-    <t>SP1_NSS</t>
+    <t>PB12</t>
   </si>
   <si>
     <t>SPI2</t>
@@ -287,37 +356,37 @@
     <t>0X4000 3800</t>
   </si>
   <si>
+    <t>PB13</t>
+  </si>
+  <si>
     <t>Timer7</t>
   </si>
   <si>
     <t>0X4000 1400</t>
   </si>
   <si>
-    <t>PB0</t>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
   </si>
   <si>
     <t>Timer6</t>
   </si>
   <si>
-    <t>PB1</t>
-  </si>
-  <si>
     <t>0X4000 1000</t>
   </si>
   <si>
-    <t>PB2</t>
-  </si>
-  <si>
     <t>Timer3</t>
   </si>
   <si>
     <t>0X4000 0400</t>
   </si>
   <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>SPI1_SCK</t>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
   </si>
   <si>
     <t>Timer2</t>
@@ -326,78 +395,12 @@
     <t>0X4000 0000</t>
   </si>
   <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>SPI1_MISO</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>I2C1_SCL</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>I2C1_SDA</t>
-  </si>
-  <si>
-    <t>SPI2_NSS</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>LPUART1_TX</t>
-  </si>
-  <si>
-    <t>SPI2_SCK</t>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>LPUART1_RX</t>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>SPI2_MISO</t>
-  </si>
-  <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <t>SPI2_MOSI</t>
-  </si>
-  <si>
     <t>PC0</t>
   </si>
   <si>
+    <t>SYSCFG</t>
+  </si>
+  <si>
     <t>PC1</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
   </si>
   <si>
     <t>PC13</t>
+  </si>
+  <si>
+    <t>0x4001 3800</t>
   </si>
   <si>
     <t>PC14</t>
@@ -453,7 +459,9 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -469,12 +477,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,183 +526,183 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -703,180 +714,180 @@
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
+      <c r="F17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -886,101 +897,101 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1958,264 +1969,274 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>2.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>3.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>4.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="C10">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
         <v>14.0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21">
         <v>5.0</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="1">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="2">
         <v>14.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
